--- a/Figures_Tables/Table1.xlsx
+++ b/Figures_Tables/Table1.xlsx
@@ -26,19 +26,19 @@
     <t xml:space="preserve">3+ doses</t>
   </si>
   <si>
-    <t xml:space="preserve">0-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2%</t>
+    <t xml:space="preserve">0-2 years old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1%</t>
   </si>
   <si>
     <t xml:space="preserve">0%</t>
   </si>
   <si>
-    <t xml:space="preserve">3-11</t>
+    <t xml:space="preserve">3-11 years old</t>
   </si>
   <si>
     <t xml:space="preserve">89%</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">72%</t>
   </si>
   <si>
-    <t xml:space="preserve">13%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-17</t>
+    <t xml:space="preserve">14%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-17 years old</t>
   </si>
   <si>
     <t xml:space="preserve">90%</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">79%</t>
   </si>
   <si>
-    <t xml:space="preserve">37%</t>
+    <t xml:space="preserve">36%</t>
   </si>
 </sst>
 </file>

--- a/Figures_Tables/Table1.xlsx
+++ b/Figures_Tables/Table1.xlsx
@@ -12,23 +12,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Age Group (years)</t>
   </si>
   <si>
-    <t xml:space="preserve">1 dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 doses</t>
+    <t xml:space="preserve">0 dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1+ doses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2+ doses</t>
   </si>
   <si>
     <t xml:space="preserve">3+ doses</t>
   </si>
   <si>
+    <t xml:space="preserve">Population</t>
+  </si>
+  <si>
     <t xml:space="preserve">0-2 years old</t>
   </si>
   <si>
+    <t xml:space="preserve">97%</t>
+  </si>
+  <si>
     <t xml:space="preserve">3%</t>
   </si>
   <si>
@@ -41,6 +50,9 @@
     <t xml:space="preserve">3-11 years old</t>
   </si>
   <si>
+    <t xml:space="preserve">11%</t>
+  </si>
+  <si>
     <t xml:space="preserve">89%</t>
   </si>
   <si>
@@ -51,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">12-17 years old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10%</t>
   </si>
   <si>
     <t xml:space="preserve">90%</t>
@@ -404,47 +419,71 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1503039</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6162373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4360513</v>
       </c>
     </row>
   </sheetData>
